--- a/doc/Teeprint_Development_TimeLine_20160606.xlsx
+++ b/doc/Teeprint_Development_TimeLine_20160606.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="2" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Items</t>
   </si>
   <si>
-    <t>Man/days</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Create new fucntion download Artwork</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,22 +348,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +586,7 @@
     <tableColumn id="1" name="No" dataDxfId="5"/>
     <tableColumn id="2" name="Modules/Page" dataDxfId="4"/>
     <tableColumn id="3" name="Items" dataDxfId="3"/>
-    <tableColumn id="4" name="Man/days" dataDxfId="2"/>
+    <tableColumn id="4" name="Status" dataDxfId="2"/>
     <tableColumn id="5" name="PIC" dataDxfId="1"/>
     <tableColumn id="6" name="Note" dataDxfId="0"/>
   </tableColumns>
@@ -880,15 +883,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -899,25 +902,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="16" t="s">
-        <v>7</v>
+      <c r="B2" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="6"/>
@@ -926,13 +929,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="D3" s="20">
         <v>1</v>
       </c>
       <c r="E3" s="6"/>
@@ -940,13 +943,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="18" t="s">
-        <v>8</v>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
+        <v>11</v>
+      </c>
+      <c r="D4" s="20">
         <v>1</v>
       </c>
       <c r="E4" s="6"/>
@@ -954,69 +957,69 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="18" t="s">
-        <v>8</v>
+      <c r="B5" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="18" t="s">
-        <v>8</v>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.8</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="18" t="s">
-        <v>11</v>
+      <c r="B7" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.5</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="18" t="s">
-        <v>11</v>
+      <c r="B8" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="18" t="s">
-        <v>11</v>
+      <c r="B9" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6">
+        <v>13</v>
+      </c>
+      <c r="D9" s="20">
         <v>1</v>
       </c>
       <c r="E9" s="6"/>
@@ -1024,111 +1027,111 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="18" t="s">
-        <v>11</v>
+      <c r="B10" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="18" t="s">
-        <v>11</v>
+      <c r="B11" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="18" t="s">
-        <v>11</v>
+      <c r="B12" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="18" t="s">
-        <v>11</v>
+      <c r="B13" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="18" t="s">
-        <v>11</v>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="18" t="s">
-        <v>11</v>
+      <c r="B15" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.5</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="18" t="s">
-        <v>11</v>
+      <c r="B16" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="18" t="s">
-        <v>11</v>
+      <c r="B17" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="6">
+        <v>22</v>
+      </c>
+      <c r="D17" s="20">
         <v>1</v>
       </c>
       <c r="E17" s="6"/>
@@ -1136,79 +1139,79 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="18" t="s">
-        <v>11</v>
+      <c r="B18" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="18" t="s">
-        <v>11</v>
+      <c r="B19" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="19" t="s">
-        <v>26</v>
+      <c r="B20" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="18" t="s">
-        <v>8</v>
+      <c r="B21" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.8</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="18" t="s">
-        <v>8</v>
+      <c r="B22" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.2</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="18" t="s">
-        <v>8</v>
+      <c r="B23" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="6">
+        <v>28</v>
+      </c>
+      <c r="D23" s="20">
         <v>1</v>
       </c>
       <c r="E23" s="6"/>
@@ -1216,13 +1219,13 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="18" t="s">
-        <v>8</v>
+      <c r="B24" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="6">
+        <v>29</v>
+      </c>
+      <c r="D24" s="20">
         <v>1</v>
       </c>
       <c r="E24" s="6"/>
@@ -1230,55 +1233,55 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="18" t="s">
-        <v>11</v>
+      <c r="B25" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.7</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="18" t="s">
-        <v>11</v>
+      <c r="B26" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.7</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="18" t="s">
-        <v>11</v>
+      <c r="B27" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.6</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="18" t="s">
-        <v>11</v>
+      <c r="B28" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="6">
+        <v>33</v>
+      </c>
+      <c r="D28" s="20">
         <v>1</v>
       </c>
       <c r="E28" s="6"/>
@@ -1286,13 +1289,13 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="18" t="s">
-        <v>11</v>
+      <c r="B29" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="6">
+        <v>35</v>
+      </c>
+      <c r="D29" s="20">
         <v>1</v>
       </c>
       <c r="E29" s="6"/>
@@ -1300,50 +1303,50 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="18" t="s">
-        <v>11</v>
+      <c r="B30" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="18" t="s">
-        <v>11</v>
+      <c r="B31" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="6">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.2</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="18" t="s">
-        <v>11</v>
+      <c r="B32" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="6">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.1</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="17" t="s">
-        <v>39</v>
+      <c r="B33" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="6"/>
@@ -1352,84 +1355,84 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="18" t="s">
-        <v>8</v>
+      <c r="B34" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="18" t="s">
-        <v>8</v>
+      <c r="B35" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="18" t="s">
-        <v>11</v>
+      <c r="B36" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="6">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="18" t="s">
-        <v>11</v>
+      <c r="B37" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="6">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="18" t="s">
-        <v>11</v>
+      <c r="B38" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="18" t="s">
-        <v>11</v>
+      <c r="B39" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -1438,28 +1441,25 @@
       <c r="A40" s="5"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="6"/>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="14">
-        <f>SUM(Table1[Man/days])</f>
-        <v>52</v>
-      </c>
-      <c r="D41" s="14"/>
+      <c r="A41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
